--- a/biology/Botanique/Ipomoea_carnea/Ipomoea_carnea.xlsx
+++ b/biology/Botanique/Ipomoea_carnea/Ipomoea_carnea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ipomoea carnea est une espèce d’arbustes de la famille des Convolvulaceae, originaire d'Amérique tropicale (depuis les États-Unis jusqu'en Argentine) et des Caraïbes. Elle est devenue invasive dans de nombreuses régions tropicales en Afrique, Inde, Australie…
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle atteint 1 à 2 m de haut. Les feuilles caduques, en forme de cœur ou ovales font 10 à 15 cm de long et sont duveteuses sur leur face inférieure.
 Les fleurs roses à mauve sont des campanules de 5 cm de diamètre. Les fruits sont des capsules ovoïdes de 2 cm de long.
@@ -546,9 +560,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (6 août 2020)[2], Catalogue of Life                                   (6 août 2020)[3], World Checklist of Selected Plant Families (WCSP)  (6 août 2020)[4] et Tropicos                                           (6 août 2020)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (6 août 2020), Catalogue of Life                                   (6 août 2020), World Checklist of Selected Plant Families (WCSP)  (6 août 2020) et Tropicos                                           (6 août 2020) :
 sous-espèce Ipomoea carnea subsp. carnea
 sous-espèce Ipomoea carnea subsp. fistulosa (Mart. ex Choisy) D.F.Austin (1977)</t>
         </is>
